--- a/TC_004.xlsx
+++ b/TC_004.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denislav\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denislav\Desktop\denis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -73,9 +73,6 @@
     <t>open automationpractice.com</t>
   </si>
   <si>
-    <t>23.10.2018</t>
-  </si>
-  <si>
     <t>Denislav Zlatanov</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>top sellers dresses are shown</t>
+  </si>
+  <si>
+    <t>22.10.2018</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -629,10 +629,10 @@
     </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">

--- a/TC_004.xlsx
+++ b/TC_004.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denislav\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denislav\Desktop\denis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -73,9 +73,6 @@
     <t>open automationpractice.com</t>
   </si>
   <si>
-    <t>23.10.2018</t>
-  </si>
-  <si>
     <t>Denislav Zlatanov</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>top sellers dresses are shown</t>
+  </si>
+  <si>
+    <t>21.10.2018</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -629,10 +629,10 @@
     </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
